--- a/data/trans_dic/P44-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 22,8</t>
+          <t>9,26; 23,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 25,2</t>
+          <t>12,27; 25,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,36; 56,61</t>
+          <t>46,56; 57,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 37,25</t>
+          <t>13,29; 37,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,12</t>
+          <t>4,54; 17,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,48; 47,59</t>
+          <t>36,1; 47,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,24; 23,76</t>
+          <t>11,52; 23,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 19,81</t>
+          <t>10,61; 20,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,71; 51,59</t>
+          <t>43,43; 51,6</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 17,66</t>
+          <t>6,5; 17,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 26,63</t>
+          <t>12,71; 26,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 43,95</t>
+          <t>32,1; 43,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 22,1</t>
+          <t>5,79; 24,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,23</t>
+          <t>2,2; 11,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 40,96</t>
+          <t>29,33; 41,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,94</t>
+          <t>7,26; 17,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 18,44</t>
+          <t>9,3; 18,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,33; 40,93</t>
+          <t>32,65; 41,0</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 16,81</t>
+          <t>7,4; 17,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 16,06</t>
+          <t>7,68; 15,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,69; 91,81</t>
+          <t>37,77; 90,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 16,84</t>
+          <t>4,68; 17,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 16,94</t>
+          <t>3,85; 17,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,63; 39,32</t>
+          <t>25,82; 39,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,7</t>
+          <t>7,45; 14,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,36</t>
+          <t>7,43; 14,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,82; 88,74</t>
+          <t>36,03; 88,48</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,5</t>
+          <t>5,9; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,55</t>
+          <t>7,53; 12,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,94; 35,62</t>
+          <t>28,06; 35,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,43</t>
+          <t>4,65; 12,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,07</t>
+          <t>5,85; 14,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 29,93</t>
+          <t>5,82; 30,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,64</t>
+          <t>6,31; 10,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,0</t>
+          <t>7,75; 12,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 31,61</t>
+          <t>12,39; 31,57</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,04</t>
+          <t>2,23; 8,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,62</t>
+          <t>6,31; 12,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,95; 34,84</t>
+          <t>24,19; 34,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,46</t>
+          <t>4,92; 11,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,09</t>
+          <t>5,15; 11,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,84; 29,05</t>
+          <t>23,23; 29,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,15</t>
+          <t>4,67; 8,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,68</t>
+          <t>6,19; 10,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 29,98</t>
+          <t>24,32; 29,91</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 64,86</t>
+          <t>13,75; 58,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,97</t>
+          <t>3,7; 7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,31</t>
+          <t>4,31; 8,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,52; 30,88</t>
+          <t>24,27; 30,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,05</t>
+          <t>3,46; 7,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,15</t>
+          <t>4,31; 8,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,24; 30,57</t>
+          <t>24,64; 30,63</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,47</t>
+          <t>7,77; 11,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,69</t>
+          <t>10,15; 13,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,94; 65,7</t>
+          <t>35,85; 67,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,0</t>
+          <t>6,18; 9,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,03</t>
+          <t>6,01; 8,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 30,48</t>
+          <t>16,44; 30,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 9,57</t>
+          <t>7,27; 9,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 10,66</t>
+          <t>8,46; 10,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,3; 48,86</t>
+          <t>29,76; 50,98</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20177</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30937</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>129190</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13374</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11089</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73662</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33552</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42026</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>202853</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12948; 32859</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21238; 43835</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>116996; 144694</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7629; 21414</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4967; 19333</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63221; 83579</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22732; 46379</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29957; 57603</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>185217; 220051</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16229</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26947</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82796</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8308</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49547</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24537</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32263</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132342</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9539; 25566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18239; 37887</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70661; 96326</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3931; 16607</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2117; 11476</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41261; 57976</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15571; 36814</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22273; 44932</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>117793; 147934</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29288</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30018</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>330058</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10902</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7354</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32589</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40190</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37371</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>362648</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18965; 43577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20571; 41731</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>173714; 418336</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5533; 20591</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3132; 13973</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25835; 39961</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27900; 55154</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25937; 51267</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>201745; 495430</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38494</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>52032</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>160943</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15472</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24305</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85493</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53966</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76338</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>246436</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26955; 53834</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40253; 68495</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>142462; 180898</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9129; 24824</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14979; 36297</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29122; 151840</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41235; 71737</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61295; 95811</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124828; 318120</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9569</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24934</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>67607</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26930</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29557</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>110987</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36498</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54491</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>178594</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4231; 16692</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17217; 35133</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56506; 81148</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17671; 39994</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19645; 42062</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>98516; 124747</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25643; 49191</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40492; 69130</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>159945; 196721</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34083</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40469</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>120382</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34083</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40469</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>124268</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1463</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1744</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1576; 6676</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24569; 47381</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>28511; 55990</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>107024; 133419</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23118; 47548</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28767; 54430</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>111479; 138560</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>113757</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>164868</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>774479</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>109069</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>118090</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>472662</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>222825</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>282958</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1247141</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>92764; 138282</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>141757; 189267</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>603748; 1132541</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>90348; 132333</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>95309; 140067</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>292847; 545367</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>193009; 257516</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>252502; 316205</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1031074; 1766515</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
